--- a/JIRAStatus.xlsx
+++ b/JIRAStatus.xlsx
@@ -5,10 +5,10 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/shirish_pathak_einfochips_com/Documents/Documents/UiPath/TestSuiteDemo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/shirish_pathak_einfochips_com/Documents/Documents/UiPath/StateMachine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="6_{3ABA33D2-ABF1-4904-AFD5-48C10EA5DACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{92EEA4CE-E56D-41BC-8893-23BF28CD9877}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="6_{3ABA33D2-ABF1-4904-AFD5-48C10EA5DACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6C46750D-5EC8-4DF2-9F41-9362FEB1D2A7}"/>
   <x:bookViews>
     <x:workbookView xWindow="3340" yWindow="1990" windowWidth="14400" windowHeight="7360" firstSheet="0" activeTab="0" xr2:uid="{F87986E1-CDF1-4370-83A6-B33EA4DD369C}"/>
   </x:bookViews>
@@ -16,6 +16,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <x:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>UIPath TC</x:t>
   </x:si>
@@ -63,7 +64,7 @@
     <x:t>TC001</x:t>
   </x:si>
   <x:si>
-    <x:t>9613820</x:t>
+    <x:t>9632813</x:t>
   </x:si>
   <x:si>
     <x:t>Fail</x:t>
@@ -72,54 +73,45 @@
     <x:t>Yes</x:t>
   </x:si>
   <x:si>
-    <x:t>REST5-T131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Invoice search Failed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REST5-R134</x:t>
+    <x:t>REST5-T133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice earch Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REST5-R136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9417766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REST5-T18</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ot able to Login in EBS Site </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name TC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Des</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cycle ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EBS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycle creation logic - tc1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new cycle</x:t>
   </x:si>
   <x:si>
     <x:t>TC002</x:t>
   </x:si>
   <x:si>
-    <x:t>9614711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REST5-T132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UIDemo Login Failed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9417766</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REST5-T18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ot able to Login in EBS Site </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name TC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Des</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cycle ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EBS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cycle creation logic - tc1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new cycle</x:t>
-  </x:si>
-  <x:si>
     <x:t>no logic</x:t>
   </x:si>
   <x:si>
@@ -199,6 +191,51 @@
   </x:si>
   <x:si>
     <x:t>REST5-R11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Open browser </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Browser should be opened</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>navigate to EBS URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EBS login page should be opened</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACME login page should be opened</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enter credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Credentials entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify home page</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -208,7 +245,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
+  <x:fonts count="4" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -221,6 +258,12 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="8"/>
+      <x:color rgb="FFDA846B"/>
+      <x:name val="Segoe UI"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -247,17 +290,30 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -584,85 +640,62 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
-    <x:col min="1" max="3" width="12.179688" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="12.089844" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="25.453125" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="25.90625" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="8" width="14.453125" style="2" customWidth="1"/>
-    <x:col min="9" max="9" width="12.363281" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="12" width="9.179688" style="2" customWidth="1"/>
-    <x:col min="13" max="13" width="12.089844" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="14" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="25.90625" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="16" max="16" width="11.269531" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="3" width="12.179688" style="3" customWidth="1"/>
+    <x:col min="4" max="4" width="12.089844" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="25.453125" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="25.90625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="8" width="14.453125" style="3" customWidth="1"/>
+    <x:col min="9" max="9" width="12.363281" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="12" width="9.179688" style="3" customWidth="1"/>
+    <x:col min="13" max="13" width="12.089844" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="25.90625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16" width="11.269531" style="3" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D1" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="E1" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="F1" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="2" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:16">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="C2" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
+      <x:c r="D2" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="E2" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s">
+      <x:c r="F2" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16">
-      <x:c r="A3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="G2" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -689,23 +722,23 @@
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData>
     <x:row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <x:c r="C9" s="2" t="s">
+      <x:c r="C9" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E9" s="2" t="s">
+      <x:c r="D9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="2" t="s">
+      <x:c r="F9" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G9" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H9" s="2" t="s">
-        <x:v>20</x:v>
+      <x:c r="G9" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8"/>
@@ -725,291 +758,291 @@
   </x:sheetPr>
   <x:dimension ref="A1:P26"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A8" workbookViewId="0">
-      <x:selection activeCell="J21" sqref="J21 J21:J21"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A18" sqref="A18 A18:A18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.179688" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="9.179688" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="12.089844" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="7.179688" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="10" width="9.179688" style="2" customWidth="1"/>
-    <x:col min="11" max="11" width="11.816406" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.179688" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="10.90625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.179688" style="3" customWidth="1"/>
+    <x:col min="4" max="4" width="12.089844" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="7.179688" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="20.453125" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="10" width="9.179688" style="3" customWidth="1"/>
+    <x:col min="11" max="11" width="11.816406" style="3" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="I2" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+    </x:row>
+    <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="G3" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H3" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="G7" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="s">
+      <x:c r="H8" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I2" s="2" t="s">
+    </x:row>
+    <x:row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="M12" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="N12" s="3" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H3" s="2" t="s">
+      <x:c r="O12" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A7" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A8" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G8" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H8" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="M12" s="2" t="s">
+      <x:c r="P12" s="3" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="M13" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N13" s="3" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N12" s="2" t="s">
+      <x:c r="O13" s="3" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="O12" s="2" t="s">
+      <x:c r="P13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A14" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F14" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M14" s="3" t="s"/>
+      <x:c r="N14" s="3" t="s"/>
+      <x:c r="O14" s="3" t="s"/>
+      <x:c r="P14" s="3" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A16" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="P12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="M13" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N13" s="2" t="s">
+      <x:c r="C16" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E16" s="3" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="O13" s="2" t="s">
+      <x:c r="F16" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G16" s="3" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="P13" s="2" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A14" s="2" t="s">
+    </x:row>
+    <x:row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="K17" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A18" s="3" t="s"/>
+      <x:c r="J18" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K18" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A19" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="C19" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D19" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
+      <x:c r="E19" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E14" s="2" t="s">
+      <x:c r="F19" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F14" s="2" t="s">
+      <x:c r="G19" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="2" t="s"/>
-      <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A16" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="H19" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J19" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
+      <x:c r="K19" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="B20" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D20" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E20" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F20" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G20" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H20" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J20" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E16" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G16" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="K17" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="J18" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K18" s="2" t="s">
+      <x:c r="K20" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="B21" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
         <x:v>38</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="D21" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E21" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F21" s="3" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G19" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H19" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J19" s="2" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K19" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="B20" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E20" s="2" t="s">
+      <x:c r="G21" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H21" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="B25" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D25" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E25" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F20" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G20" s="2" t="s">
+      <x:c r="F25" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G25" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H25" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="B26" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D26" s="3" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="H20" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="J20" s="2" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K20" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="B21" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E21" s="2" t="s">
+      <x:c r="E26" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F21" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G21" s="2" t="s">
+      <x:c r="F26" s="3" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H21" s="2" t="s">
+      <x:c r="G26" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="J21" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="B25" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E25" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s">
+      <x:c r="H26" s="3" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="G25" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H25" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <x:c r="B26" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E26" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G26" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H26" s="2" t="s">
-        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1020,4 +1053,142 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{E3C4C352-534A-40E0-91E6-573C85BE9357}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I5"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="H7" sqref="H7 H7:H7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="4" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="4" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G2" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H2" s="4" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I2" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="4" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D3" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G3" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H3" s="4" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I3" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G4" s="4" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I4" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H5" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I5" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>